--- a/data-viz/inputs/region_labels.xlsx
+++ b/data-viz/inputs/region_labels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wjproject.sharepoint.com/research/Programmatic/EU Subnational/EU-S Data/reports/eu-thematic-reports/data-viz/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="410" documentId="8_{6626208B-8827-4CBE-9772-3AA277DEA2CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DFB7213-85B3-44B0-B4B2-F560E23478C8}"/>
+  <xr:revisionPtr revIDLastSave="413" documentId="8_{6626208B-8827-4CBE-9772-3AA277DEA2CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D53809CE-80C5-46C4-9E36-28421E7F2FB9}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{DD3ABE5B-D581-4517-9DBD-9419A819EBBB}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{DD3ABE5B-D581-4517-9DBD-9419A819EBBB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="781" uniqueCount="600">
   <si>
     <t>Belgium</t>
   </si>
@@ -1049,9 +1049,6 @@
   </si>
   <si>
     <t>North and South-East</t>
-  </si>
-  <si>
-    <t>Waloon Region</t>
   </si>
   <si>
     <t>South -West/-Central</t>
@@ -2022,6 +2019,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2321,23 +2322,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B15BD7-531B-4529-B0B4-38B6E533B250}">
-  <dimension ref="A1:K111"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:K122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I122" sqref="I29:I122"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="48.28515625" customWidth="1"/>
-    <col min="5" max="5" width="39.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.453125" customWidth="1"/>
+    <col min="4" max="4" width="48.36328125" customWidth="1"/>
+    <col min="5" max="5" width="39.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="15"/>
+    <col min="9" max="9" width="11.453125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>324</v>
       </c>
@@ -2357,22 +2359,22 @@
         <v>320</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>362</v>
-      </c>
       <c r="J1" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>222</v>
       </c>
@@ -2402,13 +2404,13 @@
         <v>0.43951896873419782</v>
       </c>
       <c r="J2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="K2" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>222</v>
       </c>
@@ -2438,13 +2440,13 @@
         <v>0.20145282056486422</v>
       </c>
       <c r="J3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="K3" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>222</v>
       </c>
@@ -2474,13 +2476,13 @@
         <v>0.35902821070093793</v>
       </c>
       <c r="J4" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="K4" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -2510,13 +2512,13 @@
         <v>0.10671887683308132</v>
       </c>
       <c r="J5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="K5" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -2546,13 +2548,13 @@
         <v>0.57805389789620798</v>
       </c>
       <c r="J6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="K6" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -2569,7 +2571,7 @@
         <v>9</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>333</v>
+        <v>9</v>
       </c>
       <c r="G7" s="13">
         <v>11742796</v>
@@ -2582,13 +2584,13 @@
         <v>0.31522722527071068</v>
       </c>
       <c r="J7" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="K7" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -2618,13 +2620,13 @@
         <v>0.485463831344772</v>
       </c>
       <c r="J8" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K8" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2641,7 +2643,7 @@
         <v>16</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G9" s="13">
         <v>6447710</v>
@@ -2654,13 +2656,13 @@
         <v>0.514536168655228</v>
       </c>
       <c r="J9" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K9" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>155</v>
       </c>
@@ -2690,13 +2692,13 @@
         <v>0.25944780614579366</v>
       </c>
       <c r="J10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="K10" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>155</v>
       </c>
@@ -2726,13 +2728,13 @@
         <v>0.33706121227953822</v>
       </c>
       <c r="J11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="K11" t="s">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>155</v>
       </c>
@@ -2762,13 +2764,13 @@
         <v>0.19959624959814526</v>
       </c>
       <c r="J12" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K12" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>155</v>
       </c>
@@ -2798,13 +2800,13 @@
         <v>0.20389473197652286</v>
       </c>
       <c r="J13" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K13" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>182</v>
       </c>
@@ -2834,13 +2836,13 @@
         <v>1</v>
       </c>
       <c r="J14" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="K14" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" s="18" t="s">
         <v>17</v>
       </c>
@@ -2870,13 +2872,13 @@
         <v>0.12535879608357547</v>
       </c>
       <c r="J15" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="K15" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" s="18" t="s">
         <v>17</v>
       </c>
@@ -2884,16 +2886,16 @@
         <v>2</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F16" s="20" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G16" s="16">
         <v>10827529</v>
@@ -2906,13 +2908,13 @@
         <v>0.35123563280227649</v>
       </c>
       <c r="J16" s="17" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="K16" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" s="18" t="s">
         <v>17</v>
       </c>
@@ -2920,16 +2922,16 @@
         <v>2</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D17" s="22" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G17" s="16">
         <v>10827529</v>
@@ -2942,13 +2944,13 @@
         <v>0.30156298819425931</v>
       </c>
       <c r="J17" s="17" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K17" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" s="18" t="s">
         <v>17</v>
       </c>
@@ -2956,16 +2958,16 @@
         <v>2</v>
       </c>
       <c r="C18" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="D18" s="22" t="s">
         <v>367</v>
       </c>
-      <c r="D18" s="22" t="s">
-        <v>368</v>
-      </c>
       <c r="E18" s="18" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F18" s="20" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G18" s="16">
         <v>10827529</v>
@@ -2978,13 +2980,13 @@
         <v>0.22184258291988873</v>
       </c>
       <c r="J18" s="17" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="K18" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -3001,7 +3003,7 @@
         <v>25</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G19" s="13">
         <v>5932654</v>
@@ -3014,13 +3016,13 @@
         <v>0.31889117416926727</v>
       </c>
       <c r="J19" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K19" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -3050,13 +3052,13 @@
         <v>0.14325072724618695</v>
       </c>
       <c r="J20" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="K20" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -3073,7 +3075,7 @@
         <v>31</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G21" s="13">
         <v>5932654</v>
@@ -3086,13 +3088,13 @@
         <v>0.20857663366176418</v>
       </c>
       <c r="J21" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K21" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -3122,13 +3124,13 @@
         <v>0.22905077558880055</v>
       </c>
       <c r="J22" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K22" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -3158,13 +3160,13 @@
         <v>0.10023068933398105</v>
       </c>
       <c r="J23" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K23" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>79</v>
       </c>
@@ -3194,13 +3196,13 @@
         <v>1</v>
       </c>
       <c r="J24" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="K24" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>300</v>
       </c>
@@ -3230,13 +3232,13 @@
         <v>0.24888002631214762</v>
       </c>
       <c r="J25" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="K25" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>300</v>
       </c>
@@ -3266,13 +3268,13 @@
         <v>0.31147418120514669</v>
       </c>
       <c r="J26" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="K26" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" s="18" t="s">
         <v>300</v>
       </c>
@@ -3280,16 +3282,16 @@
         <v>2</v>
       </c>
       <c r="C27" s="18" t="s">
+        <v>373</v>
+      </c>
+      <c r="D27" s="22" t="s">
         <v>374</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="E27" s="18" t="s">
         <v>375</v>
       </c>
-      <c r="E27" s="18" t="s">
-        <v>376</v>
-      </c>
       <c r="F27" s="20" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G27" s="16">
         <v>5563970</v>
@@ -3302,13 +3304,13 @@
         <v>0.21114995228227326</v>
       </c>
       <c r="J27" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="K27" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>300</v>
       </c>
@@ -3338,13 +3340,13 @@
         <v>0.22849584020043243</v>
       </c>
       <c r="J28" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="K28" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>121</v>
       </c>
@@ -3374,13 +3376,13 @@
         <v>0.18171992107664595</v>
       </c>
       <c r="J29" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="K29" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>121</v>
       </c>
@@ -3410,13 +3412,13 @@
         <v>3.7738340222402196E-2</v>
       </c>
       <c r="J30" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K30" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>121</v>
       </c>
@@ -3446,13 +3448,13 @@
         <v>4.0983511692616853E-2</v>
       </c>
       <c r="J31" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K31" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>121</v>
       </c>
@@ -3482,13 +3484,13 @@
         <v>4.8796094088717878E-2</v>
       </c>
       <c r="J32" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="K32" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>121</v>
       </c>
@@ -3518,13 +3520,13 @@
         <v>8.7812858751936271E-2</v>
       </c>
       <c r="J33" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="K33" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>121</v>
       </c>
@@ -3541,7 +3543,7 @@
         <v>136</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G34" s="13">
         <v>68172977</v>
@@ -3554,13 +3556,13 @@
         <v>8.1634721628776746E-2</v>
       </c>
       <c r="J34" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="K34" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>121</v>
       </c>
@@ -3577,7 +3579,7 @@
         <v>138</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G35" s="13">
         <v>68172977</v>
@@ -3590,13 +3592,13 @@
         <v>5.7238442146952159E-2</v>
       </c>
       <c r="J35" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="K35" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>121</v>
       </c>
@@ -3626,13 +3628,13 @@
         <v>5.0355744329604379E-2</v>
       </c>
       <c r="J36" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K36" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>121</v>
       </c>
@@ -3649,7 +3651,7 @@
         <v>143</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G37" s="13">
         <v>68172977</v>
@@ -3662,13 +3664,13 @@
         <v>8.9846289094871121E-2</v>
       </c>
       <c r="J37" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="K37" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>121</v>
       </c>
@@ -3698,13 +3700,13 @@
         <v>8.9626407249312284E-2</v>
       </c>
       <c r="J38" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K38" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>121</v>
       </c>
@@ -3734,13 +3736,13 @@
         <v>0.12021687126850863</v>
       </c>
       <c r="J39" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="K39" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>121</v>
       </c>
@@ -3770,13 +3772,13 @@
         <v>7.5894470619934928E-2</v>
       </c>
       <c r="J40" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="K40" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>121</v>
       </c>
@@ -3806,13 +3808,13 @@
         <v>5.1758191519199756E-3</v>
       </c>
       <c r="J41" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="K41" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>38</v>
       </c>
@@ -3842,13 +3844,13 @@
         <v>0.13371753726595001</v>
       </c>
       <c r="J42" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="K42" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>38</v>
       </c>
@@ -3878,13 +3880,13 @@
         <v>0.15848240928381607</v>
       </c>
       <c r="J43" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="K43" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>38</v>
       </c>
@@ -3914,13 +3916,13 @@
         <v>4.4515201695803211E-2</v>
       </c>
       <c r="J44" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="K44" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>38</v>
       </c>
@@ -3950,13 +3952,13 @@
         <v>3.0502254979901635E-2</v>
       </c>
       <c r="J45" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="K45" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>38</v>
       </c>
@@ -3986,13 +3988,13 @@
         <v>8.1184610813483746E-3</v>
       </c>
       <c r="J46" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="K46" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>38</v>
       </c>
@@ -4022,13 +4024,13 @@
         <v>2.2429444120530575E-2</v>
       </c>
       <c r="J47" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="K47" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>38</v>
       </c>
@@ -4058,13 +4060,13 @@
         <v>7.5763958124367398E-2</v>
       </c>
       <c r="J48" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="K48" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>38</v>
       </c>
@@ -4094,13 +4096,13 @@
         <v>1.9302990694099711E-2</v>
       </c>
       <c r="J49" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="K49" t="s">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>38</v>
       </c>
@@ -4130,13 +4132,13 @@
         <v>9.6495417878231973E-2</v>
       </c>
       <c r="J50" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="K50" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>38</v>
       </c>
@@ -4166,13 +4168,13 @@
         <v>0.2150232853472567</v>
       </c>
       <c r="J51" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="K51" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>38</v>
       </c>
@@ -4202,13 +4204,13 @@
         <v>4.9303069524007828E-2</v>
       </c>
       <c r="J52" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="K52" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>38</v>
       </c>
@@ -4238,13 +4240,13 @@
         <v>1.1767183393750828E-2</v>
       </c>
       <c r="J53" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="K53" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>38</v>
       </c>
@@ -4274,13 +4276,13 @@
         <v>4.8437742361218908E-2</v>
       </c>
       <c r="J54" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="K54" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>38</v>
       </c>
@@ -4310,13 +4312,13 @@
         <v>2.5920731845012816E-2</v>
       </c>
       <c r="J55" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K55" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>38</v>
       </c>
@@ -4346,13 +4348,13 @@
         <v>3.5008421464281549E-2</v>
       </c>
       <c r="J56" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="K56" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>38</v>
       </c>
@@ -4382,13 +4384,13 @@
         <v>2.5211890940422432E-2</v>
       </c>
       <c r="J57" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="K57" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>89</v>
       </c>
@@ -4418,13 +4420,13 @@
         <v>0.36401464876739753</v>
       </c>
       <c r="J58" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="K58" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>89</v>
       </c>
@@ -4454,13 +4456,13 @@
         <v>0.10998319374855843</v>
       </c>
       <c r="J59" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="K59" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>89</v>
       </c>
@@ -4477,7 +4479,7 @@
         <v>98</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G60" s="13">
         <v>10413982</v>
@@ -4490,13 +4492,13 @@
         <v>0.27959554760129218</v>
       </c>
       <c r="J60" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="K60" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>89</v>
       </c>
@@ -4526,13 +4528,13 @@
         <v>0.24640660988275187</v>
       </c>
       <c r="J61" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="K61" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>197</v>
       </c>
@@ -4562,13 +4564,13 @@
         <v>0.31248687464999064</v>
       </c>
       <c r="J62" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="K62" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>197</v>
       </c>
@@ -4598,13 +4600,13 @@
         <v>0.30219535020933891</v>
       </c>
       <c r="J63" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K63" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>197</v>
       </c>
@@ -4634,13 +4636,13 @@
         <v>0.38531777514067039</v>
       </c>
       <c r="J64" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="K64" t="s">
-        <v>550</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>82</v>
       </c>
@@ -4670,13 +4672,13 @@
         <v>0.49322940132545562</v>
       </c>
       <c r="J65" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="K65" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>82</v>
       </c>
@@ -4706,13 +4708,13 @@
         <v>0.17646334604027966</v>
       </c>
       <c r="J66" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="K66" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>82</v>
       </c>
@@ -4742,13 +4744,13 @@
         <v>0.33030725263426475</v>
       </c>
       <c r="J67" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="K67" t="s">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>169</v>
       </c>
@@ -4778,13 +4780,13 @@
         <v>0.19870810481331139</v>
       </c>
       <c r="J68" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="K68" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>169</v>
       </c>
@@ -4814,13 +4816,13 @@
         <v>0.19591644695144098</v>
       </c>
       <c r="J69" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="K69" t="s">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>169</v>
       </c>
@@ -4850,13 +4852,13 @@
         <v>0.10834686886247366</v>
       </c>
       <c r="J70" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="K70" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>169</v>
       </c>
@@ -4886,13 +4888,13 @@
         <v>0.26880302338410939</v>
       </c>
       <c r="J71" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="K71" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>169</v>
       </c>
@@ -4922,13 +4924,13 @@
         <v>0.22822555598866462</v>
       </c>
       <c r="J72" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="K72" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>185</v>
       </c>
@@ -4958,13 +4960,13 @@
         <v>1</v>
       </c>
       <c r="J73" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="K73" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>188</v>
       </c>
@@ -4994,13 +4996,13 @@
         <v>0.29703924607992427</v>
       </c>
       <c r="J74" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="K74" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>188</v>
       </c>
@@ -5017,7 +5019,7 @@
         <v>194</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G75" s="13">
         <v>2857279</v>
@@ -5030,13 +5032,13 @@
         <v>0.70296075392007573</v>
       </c>
       <c r="J75" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="K75" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>195</v>
       </c>
@@ -5066,13 +5068,13 @@
         <v>1</v>
       </c>
       <c r="J76" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="K76" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>207</v>
       </c>
@@ -5102,13 +5104,13 @@
         <v>1</v>
       </c>
       <c r="J77" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="K77" t="s">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>209</v>
       </c>
@@ -5125,7 +5127,7 @@
         <v>212</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G78" s="13">
         <v>17811291</v>
@@ -5138,13 +5140,13 @@
         <v>9.8683301508015339E-2</v>
       </c>
       <c r="J78" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="K78" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>209</v>
       </c>
@@ -5161,7 +5163,7 @@
         <v>215</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G79" s="13">
         <v>17811291</v>
@@ -5174,13 +5176,13 @@
         <v>0.21125599486303379</v>
       </c>
       <c r="J79" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="K79" t="s">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>209</v>
       </c>
@@ -5197,7 +5199,7 @@
         <v>218</v>
       </c>
       <c r="F80" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G80" s="13">
         <v>17811291</v>
@@ -5210,13 +5212,13 @@
         <v>0.47926312584528546</v>
       </c>
       <c r="J80" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K80" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>209</v>
       </c>
@@ -5233,7 +5235,7 @@
         <v>221</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G81" s="13">
         <v>17811291</v>
@@ -5246,13 +5248,13 @@
         <v>0.21079757778366542</v>
       </c>
       <c r="J81" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K81" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>232</v>
       </c>
@@ -5269,7 +5271,7 @@
         <v>247</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G82" s="13">
         <v>36753736</v>
@@ -5282,13 +5284,13 @@
         <v>9.4578630047296414E-2</v>
       </c>
       <c r="J82" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K82" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>232</v>
       </c>
@@ -5305,7 +5307,7 @@
         <v>250</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G83" s="13">
         <v>36753736</v>
@@ -5318,13 +5320,13 @@
         <v>0.13589328714773377</v>
       </c>
       <c r="J83" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="K83" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>232</v>
       </c>
@@ -5341,7 +5343,7 @@
         <v>244</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G84" s="13">
         <v>36753736</v>
@@ -5354,13 +5356,13 @@
         <v>0.15079615307679198</v>
       </c>
       <c r="J84" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="K84" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>232</v>
       </c>
@@ -5377,7 +5379,7 @@
         <v>238</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G85" s="13">
         <v>36753736</v>
@@ -5390,13 +5392,13 @@
         <v>0.16286970119173735</v>
       </c>
       <c r="J85" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="K85" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>232</v>
       </c>
@@ -5413,7 +5415,7 @@
         <v>253</v>
       </c>
       <c r="F86" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G86" s="13">
         <v>36753736</v>
@@ -5426,13 +5428,13 @@
         <v>0.1490940403990495</v>
       </c>
       <c r="J86" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="K86" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>232</v>
       </c>
@@ -5462,13 +5464,13 @@
         <v>0.20581820580090143</v>
       </c>
       <c r="J87" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="K87" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>232</v>
       </c>
@@ -5485,7 +5487,7 @@
         <v>241</v>
       </c>
       <c r="F88" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G88" s="13">
         <v>36753736</v>
@@ -5498,13 +5500,13 @@
         <v>0.10094998233648955</v>
       </c>
       <c r="J88" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="K88" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>254</v>
       </c>
@@ -5534,13 +5536,13 @@
         <v>0.95288203355075196</v>
       </c>
       <c r="J89" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="K89" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>254</v>
       </c>
@@ -5570,13 +5572,13 @@
         <v>2.2922863306776509E-2</v>
       </c>
       <c r="J90" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="K90" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>254</v>
       </c>
@@ -5606,13 +5608,13 @@
         <v>2.4195103142471565E-2</v>
       </c>
       <c r="J91" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="K91" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>266</v>
       </c>
@@ -5642,13 +5644,13 @@
         <v>0.25257849202195715</v>
       </c>
       <c r="J92" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="K92" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>266</v>
       </c>
@@ -5678,13 +5680,13 @@
         <v>0.29270570994389372</v>
       </c>
       <c r="J93" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="K93" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>266</v>
       </c>
@@ -5714,13 +5716,13 @@
         <v>0.26929339914019479</v>
       </c>
       <c r="J94" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K94" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>266</v>
       </c>
@@ -5750,13 +5752,13 @@
         <v>0.18542239889395434</v>
       </c>
       <c r="J95" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="K95" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>286</v>
       </c>
@@ -5786,13 +5788,13 @@
         <v>0.13416796959618271</v>
       </c>
       <c r="J96" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="K96" t="s">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>286</v>
       </c>
@@ -5809,7 +5811,7 @@
         <v>293</v>
       </c>
       <c r="F97" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G97" s="13">
         <v>5428792</v>
@@ -5822,13 +5824,13 @@
         <v>0.33284458126227712</v>
       </c>
       <c r="J97" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="K97" t="s">
-        <v>594</v>
-      </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>286</v>
       </c>
@@ -5858,13 +5860,13 @@
         <v>0.24054762090719262</v>
       </c>
       <c r="J98" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="K98" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>286</v>
       </c>
@@ -5881,7 +5883,7 @@
         <v>299</v>
       </c>
       <c r="F99" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G99" s="13">
         <v>5428792</v>
@@ -5894,13 +5896,13 @@
         <v>0.29243982823434755</v>
       </c>
       <c r="J99" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="K99" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>279</v>
       </c>
@@ -5917,7 +5919,7 @@
         <v>282</v>
       </c>
       <c r="F100" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G100" s="13">
         <v>2116972</v>
@@ -5930,13 +5932,13 @@
         <v>0.52333474415344183</v>
       </c>
       <c r="J100" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K100" t="s">
-        <v>581</v>
-      </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>279</v>
       </c>
@@ -5953,7 +5955,7 @@
         <v>285</v>
       </c>
       <c r="F101" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G101" s="13">
         <v>2116972</v>
@@ -5966,13 +5968,13 @@
         <v>0.47666525584655822</v>
       </c>
       <c r="J101" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="K101" t="s">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>102</v>
       </c>
@@ -6002,13 +6004,13 @@
         <v>0.11483942067108532</v>
       </c>
       <c r="J102" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K102" t="s">
-        <v>582</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -6038,13 +6040,13 @@
         <v>0.29797143459108066</v>
       </c>
       <c r="J103" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="K103" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>102</v>
       </c>
@@ -6074,13 +6076,13 @@
         <v>9.4665567759801159E-2</v>
       </c>
       <c r="J104" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="K104" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>102</v>
       </c>
@@ -6110,13 +6112,13 @@
         <v>8.9296844417992405E-2</v>
       </c>
       <c r="J105" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="K105" t="s">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>102</v>
       </c>
@@ -6146,13 +6148,13 @@
         <v>0.21429357679148961</v>
       </c>
       <c r="J106" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="K106" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>102</v>
       </c>
@@ -6169,7 +6171,7 @@
         <v>111</v>
       </c>
       <c r="F107" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="G107" s="13">
         <v>48085361</v>
@@ -6182,13 +6184,13 @@
         <v>0.14291050034957625</v>
       </c>
       <c r="J107" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K107" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>102</v>
       </c>
@@ -6218,13 +6220,13 @@
         <v>4.6022655418974601E-2</v>
       </c>
       <c r="J108" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="K108" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>309</v>
       </c>
@@ -6241,7 +6243,7 @@
         <v>312</v>
       </c>
       <c r="F109" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G109" s="13">
         <v>10521556</v>
@@ -6254,13 +6256,13 @@
         <v>0.39952949924897041</v>
       </c>
       <c r="J109" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="K109" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>309</v>
       </c>
@@ -6277,7 +6279,7 @@
         <v>315</v>
       </c>
       <c r="F110" s="9" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G110" s="13">
         <v>10521556</v>
@@ -6290,13 +6292,13 @@
         <v>0.43309725291582346</v>
       </c>
       <c r="J110" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="K110" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>309</v>
       </c>
@@ -6313,7 +6315,7 @@
         <v>318</v>
       </c>
       <c r="F111" s="9" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G111" s="13">
         <v>10521556</v>
@@ -6326,14 +6328,36 @@
         <v>0.16737324783520613</v>
       </c>
       <c r="J111" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="K111" t="s">
-        <v>590</v>
+        <v>589</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="113" spans="9:9" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="114" spans="9:9" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="115" spans="9:9" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="116" spans="9:9" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="117" spans="9:9" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="118" spans="9:9" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="119" spans="9:9" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="120" spans="9:9" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="121" spans="9:9" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="122" spans="9:9" x14ac:dyDescent="0.35">
+      <c r="I122" s="15">
+        <f>SUBTOTAL(9,I29:I121)</f>
+        <v>0.96703949132219935</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K121" xr:uid="{A7B15BD7-531B-4529-B0B4-38B6E533B250}"/>
+  <autoFilter ref="A1:K121" xr:uid="{A7B15BD7-531B-4529-B0B4-38B6E533B250}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="France"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6341,6 +6365,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BF094976B1C6245BAB5BCECAC284645" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3620e9c0d1a16779aea146adda0186f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="69276225-f05c-44c5-92dc-c999460a4149" xmlns:ns3="46f3a809-46a3-44ee-a0f1-42a271529c86" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f2afd3ea0446edf26a13b3c7fc9e6232" ns2:_="" ns3:_="">
     <xsd:import namespace="69276225-f05c-44c5-92dc-c999460a4149"/>
@@ -6589,7 +6624,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -6598,18 +6633,24 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="46f3a809-46a3-44ee-a0f1-42a271529c86">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="69276225-f05c-44c5-92dc-c999460a4149" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51C746D7-CF54-4E7D-92A4-AB36B233844F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED2CE6EF-790B-4B69-B141-5B1187A2316D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6628,21 +6669,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A3263D7-CA43-48BC-8F28-1FA6213EFCDC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51C746D7-CF54-4E7D-92A4-AB36B233844F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
-    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data-viz/inputs/region_labels.xlsx
+++ b/data-viz/inputs/region_labels.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wjproject.sharepoint.com/research/Programmatic/EU Subnational/EU-S Data/reports/eu-thematic-reports/data-viz/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="413" documentId="8_{6626208B-8827-4CBE-9772-3AA277DEA2CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D53809CE-80C5-46C4-9E36-28421E7F2FB9}"/>
+  <xr:revisionPtr revIDLastSave="415" documentId="8_{6626208B-8827-4CBE-9772-3AA277DEA2CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0411938-89AF-814A-A000-CF3F78F2834A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{DD3ABE5B-D581-4517-9DBD-9419A819EBBB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19400" xr2:uid="{DD3ABE5B-D581-4517-9DBD-9419A819EBBB}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1902,6 +1902,7 @@
     <font>
       <sz val="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -2019,10 +2020,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2322,24 +2319,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B15BD7-531B-4529-B0B4-38B6E533B250}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:K122"/>
+  <dimension ref="A1:K111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I122" sqref="I29:I122"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="11.453125" customWidth="1"/>
-    <col min="4" max="4" width="48.36328125" customWidth="1"/>
-    <col min="5" max="5" width="39.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="11.5" customWidth="1"/>
+    <col min="4" max="4" width="48.33203125" customWidth="1"/>
+    <col min="5" max="5" width="39.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.453125" style="15"/>
+    <col min="9" max="9" width="11.5" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>324</v>
       </c>
@@ -2374,7 +2370,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>222</v>
       </c>
@@ -2410,7 +2406,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>222</v>
       </c>
@@ -2446,7 +2442,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>222</v>
       </c>
@@ -2482,7 +2478,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -2518,7 +2514,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -2554,7 +2550,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -2590,7 +2586,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -2626,7 +2622,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2662,7 +2658,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>155</v>
       </c>
@@ -2698,7 +2694,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>155</v>
       </c>
@@ -2734,7 +2730,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>155</v>
       </c>
@@ -2770,7 +2766,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>155</v>
       </c>
@@ -2806,7 +2802,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>182</v>
       </c>
@@ -2842,7 +2838,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="18" t="s">
         <v>17</v>
       </c>
@@ -2878,7 +2874,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="18" t="s">
         <v>17</v>
       </c>
@@ -2914,7 +2910,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
         <v>17</v>
       </c>
@@ -2950,7 +2946,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
         <v>17</v>
       </c>
@@ -2986,7 +2982,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -3022,7 +3018,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -3058,7 +3054,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>23</v>
       </c>
@@ -3094,7 +3090,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>23</v>
       </c>
@@ -3130,7 +3126,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -3166,7 +3162,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>79</v>
       </c>
@@ -3202,7 +3198,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>300</v>
       </c>
@@ -3238,7 +3234,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>300</v>
       </c>
@@ -3274,7 +3270,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="18" t="s">
         <v>300</v>
       </c>
@@ -3310,7 +3306,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>300</v>
       </c>
@@ -3346,7 +3342,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>121</v>
       </c>
@@ -3382,7 +3378,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>121</v>
       </c>
@@ -3418,7 +3414,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>121</v>
       </c>
@@ -3454,7 +3450,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>121</v>
       </c>
@@ -3490,7 +3486,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>121</v>
       </c>
@@ -3526,7 +3522,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>121</v>
       </c>
@@ -3562,7 +3558,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>121</v>
       </c>
@@ -3598,7 +3594,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>121</v>
       </c>
@@ -3634,7 +3630,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>121</v>
       </c>
@@ -3670,7 +3666,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>121</v>
       </c>
@@ -3706,7 +3702,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>121</v>
       </c>
@@ -3742,7 +3738,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>121</v>
       </c>
@@ -3778,7 +3774,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>121</v>
       </c>
@@ -3814,7 +3810,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>38</v>
       </c>
@@ -3850,7 +3846,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>38</v>
       </c>
@@ -3886,7 +3882,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>38</v>
       </c>
@@ -3922,7 +3918,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>38</v>
       </c>
@@ -3958,7 +3954,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>38</v>
       </c>
@@ -3994,7 +3990,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>38</v>
       </c>
@@ -4030,7 +4026,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>38</v>
       </c>
@@ -4066,7 +4062,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>38</v>
       </c>
@@ -4102,7 +4098,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>38</v>
       </c>
@@ -4138,7 +4134,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>38</v>
       </c>
@@ -4174,7 +4170,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>38</v>
       </c>
@@ -4210,7 +4206,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>38</v>
       </c>
@@ -4246,7 +4242,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>38</v>
       </c>
@@ -4282,7 +4278,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>38</v>
       </c>
@@ -4318,7 +4314,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>38</v>
       </c>
@@ -4354,7 +4350,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>38</v>
       </c>
@@ -4390,7 +4386,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>89</v>
       </c>
@@ -4426,7 +4422,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>89</v>
       </c>
@@ -4462,7 +4458,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>89</v>
       </c>
@@ -4498,7 +4494,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>89</v>
       </c>
@@ -4534,7 +4530,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>197</v>
       </c>
@@ -4570,7 +4566,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>197</v>
       </c>
@@ -4606,7 +4602,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>197</v>
       </c>
@@ -4642,7 +4638,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>82</v>
       </c>
@@ -4678,7 +4674,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>82</v>
       </c>
@@ -4714,7 +4710,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>82</v>
       </c>
@@ -4750,7 +4746,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>169</v>
       </c>
@@ -4786,7 +4782,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>169</v>
       </c>
@@ -4822,7 +4818,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>169</v>
       </c>
@@ -4858,7 +4854,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>169</v>
       </c>
@@ -4894,7 +4890,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>169</v>
       </c>
@@ -4930,7 +4926,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>185</v>
       </c>
@@ -4966,7 +4962,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>188</v>
       </c>
@@ -5002,7 +4998,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>188</v>
       </c>
@@ -5038,7 +5034,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>195</v>
       </c>
@@ -5074,7 +5070,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>207</v>
       </c>
@@ -5110,7 +5106,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>209</v>
       </c>
@@ -5146,7 +5142,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>209</v>
       </c>
@@ -5182,7 +5178,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>209</v>
       </c>
@@ -5218,7 +5214,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>209</v>
       </c>
@@ -5254,7 +5250,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>232</v>
       </c>
@@ -5290,7 +5286,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>232</v>
       </c>
@@ -5326,7 +5322,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>232</v>
       </c>
@@ -5362,7 +5358,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>232</v>
       </c>
@@ -5398,7 +5394,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>232</v>
       </c>
@@ -5434,7 +5430,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>232</v>
       </c>
@@ -5470,7 +5466,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>232</v>
       </c>
@@ -5506,7 +5502,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>254</v>
       </c>
@@ -5542,7 +5538,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>254</v>
       </c>
@@ -5578,7 +5574,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>254</v>
       </c>
@@ -5614,7 +5610,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>266</v>
       </c>
@@ -5650,7 +5646,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>266</v>
       </c>
@@ -5686,7 +5682,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>266</v>
       </c>
@@ -5722,7 +5718,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>266</v>
       </c>
@@ -5758,7 +5754,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>286</v>
       </c>
@@ -5794,7 +5790,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>286</v>
       </c>
@@ -5830,7 +5826,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>286</v>
       </c>
@@ -5866,7 +5862,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>286</v>
       </c>
@@ -5902,7 +5898,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>279</v>
       </c>
@@ -5938,7 +5934,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>279</v>
       </c>
@@ -5974,7 +5970,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>102</v>
       </c>
@@ -6010,7 +6006,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>102</v>
       </c>
@@ -6046,7 +6042,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>102</v>
       </c>
@@ -6082,7 +6078,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>102</v>
       </c>
@@ -6118,7 +6114,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>102</v>
       </c>
@@ -6154,7 +6150,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>102</v>
       </c>
@@ -6190,7 +6186,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>102</v>
       </c>
@@ -6226,7 +6222,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>309</v>
       </c>
@@ -6262,7 +6258,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="110" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>309</v>
       </c>
@@ -6298,7 +6294,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="111" spans="1:11" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>309</v>
       </c>
@@ -6334,30 +6330,8 @@
         <v>589</v>
       </c>
     </row>
-    <row r="112" spans="1:11" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="113" spans="9:9" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="114" spans="9:9" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="115" spans="9:9" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="116" spans="9:9" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="117" spans="9:9" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="118" spans="9:9" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="119" spans="9:9" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="120" spans="9:9" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="121" spans="9:9" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="122" spans="9:9" x14ac:dyDescent="0.35">
-      <c r="I122" s="15">
-        <f>SUBTOTAL(9,I29:I121)</f>
-        <v>0.96703949132219935</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:K121" xr:uid="{A7B15BD7-531B-4529-B0B4-38B6E533B250}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="France"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:K121" xr:uid="{A7B15BD7-531B-4529-B0B4-38B6E533B250}"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6376,6 +6350,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101006BF094976B1C6245BAB5BCECAC284645" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3620e9c0d1a16779aea146adda0186f7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="69276225-f05c-44c5-92dc-c999460a4149" xmlns:ns3="46f3a809-46a3-44ee-a0f1-42a271529c86" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f2afd3ea0446edf26a13b3c7fc9e6232" ns2:_="" ns3:_="">
     <xsd:import namespace="69276225-f05c-44c5-92dc-c999460a4149"/>
@@ -6624,33 +6607,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{51C746D7-CF54-4E7D-92A4-AB36B233844F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="46f3a809-46a3-44ee-a0f1-42a271529c86"/>
+    <ds:schemaRef ds:uri="69276225-f05c-44c5-92dc-c999460a4149"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A3263D7-CA43-48BC-8F28-1FA6213EFCDC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ED2CE6EF-790B-4B69-B141-5B1187A2316D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6667,12 +6649,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A3263D7-CA43-48BC-8F28-1FA6213EFCDC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>